--- a/biology/Botanique/Balanops/Balanops.xlsx
+++ b/biology/Botanique/Balanops/Balanops.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Balanops est un genre de plantes à fleurs de la famille des Balanopaceae[1],[2]. Les neuf espèces sont des arbres ou des arbustes, présents en Nouvelle-Calédonie, Fidji, Vanuatu, et dans le Nord du Queensland[3]. Elles sont dioïques, avec des plantes mâles et femelles séparées[4].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Balanops est un genre de plantes à fleurs de la famille des Balanopaceae,. Les neuf espèces sont des arbres ou des arbustes, présents en Nouvelle-Calédonie, Fidji, Vanuatu, et dans le Nord du Queensland. Elles sont dioïques, avec des plantes mâles et femelles séparées.
 Le genre constitue à lui seul la famille des Balanopaceae (auparavant, l'orthographe Balanopsidaceae était également utilisée). Elle fait partie de l'ordre des Malpighiales et est apparentée aux Chrysobalanaceae, Dichapetalaceae, Euphroniaceae et Trigoniaceae.
 </t>
         </is>
@@ -512,9 +524,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (23 décembre 2023)[5] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (23 décembre 2023) :
 Balanops australiana F.Muell.
 Balanops balansae Baill.
 Balanops microstachya Baill.
@@ -551,10 +565,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le nom correct complet (avec auteur) de ce taxon est Balanops Baill., 1871[6].
-Balanops a pour synonymes[5] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le nom correct complet (avec auteur) de ce taxon est Balanops Baill., 1871.
+Balanops a pour synonymes :
 Ternstroemiacearum Seem.
 Trilocularia Schltr.</t>
         </is>
